--- a/historical.databases/Sampling.Exp.SantaIsabel.xlsx
+++ b/historical.databases/Sampling.Exp.SantaIsabel.xlsx
@@ -1,388 +1,395 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/expediciornis/historical.databases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921049C1-2A31-C249-AB1B-AF5E48A81491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18860" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Santa Isabel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Santa Isabel" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
-  <si>
-    <t xml:space="preserve">Sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paramo Santa Isabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note.Paramo Santa Isabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anatidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anas andium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Cracidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penelope montagnii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trochilidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heliangelus exortis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramphomicron microrhynchum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxypogon stuebelii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallura tyrianthina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallura williami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriocnemis derbyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriocnemis mosquera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coeligena lutetiae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lafresnaya lafresnayi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterophanes cyanopterus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scolopacidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gallinago jamesoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gallinago nobilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accipitridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geranoaetus polyosoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trogonidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trogon personatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramphastidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andigena hypoglauca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dryobates nigriceps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campephilus pollens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colaptes rivolii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psittacidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapalopsittaca fuertesi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazona mercenarius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grallariidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grallaria squamigera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grallaria rufula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grallaria quitensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinocryptidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scytalopus opacus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Furnariidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudocolaptes boissonneautii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinclodes excelsior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margarornis squamiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptasthenura andicola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asthenes flammulata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asthenes fuliginosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotingidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ampelion rubrocristatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyrannidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudotriccus ruficeps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecocerculus stictopterus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecocerculus leucophrys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscisaxicola alpinus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myiotheretes striaticollis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myiotheretes fumigatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochthoeca frontalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochthoeca oenanthoides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corvidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyanolyca armillata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troglodytidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troglodytes solstitialis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cistothorus platensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinnycerthia unirufa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turdidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turdus fuscater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fringillidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophonia pyrrhophrys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spinus spinescens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passerellidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arremon assimilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonotrichia capensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlapetes pallidinucha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlapetes latinuchus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parulidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setophaga fusca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basileuterus tristriatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myiothlypis nigrocristata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myioborus ornatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thraupidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thlypopsis superciliaris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buthraupis montana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cnemathraupis eximia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anisognathus lacrymosus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conirostrum sitticolor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conirostrum albifrons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diglossa lafresnayii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diglossa humeralis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diglossa cyanea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urothraupis stolzmanni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geospizopsis unicolor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haplospiza unicolor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudospingus verticalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cnemoscopus rubrirostris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catamenia inornata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-chap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?Grallaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?Grallaria quitensis?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buteo NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metallura NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scytalopus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scytalopus ?spillmanni?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scytalopus sp.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="121">
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Paramo Santa Isabel</t>
+  </si>
+  <si>
+    <t>note.Paramo Santa Isabel</t>
+  </si>
+  <si>
+    <t>Anatidae</t>
+  </si>
+  <si>
+    <t>Anas andium</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cracidae</t>
+  </si>
+  <si>
+    <t>Penelope montagnii</t>
+  </si>
+  <si>
+    <t>0-spec</t>
+  </si>
+  <si>
+    <t>Trochilidae</t>
+  </si>
+  <si>
+    <t>Heliangelus exortis</t>
+  </si>
+  <si>
+    <t>Ramphomicron microrhynchum</t>
+  </si>
+  <si>
+    <t>Oxypogon stuebelii</t>
+  </si>
+  <si>
+    <t>Metallura tyrianthina</t>
+  </si>
+  <si>
+    <t>Metallura williami</t>
+  </si>
+  <si>
+    <t>7-spec</t>
+  </si>
+  <si>
+    <t>Eriocnemis derbyi</t>
+  </si>
+  <si>
+    <t>Eriocnemis mosquera</t>
+  </si>
+  <si>
+    <t>Coeligena lutetiae</t>
+  </si>
+  <si>
+    <t>0-chap</t>
+  </si>
+  <si>
+    <t>Lafresnaya lafresnayi</t>
+  </si>
+  <si>
+    <t>Pterophanes cyanopterus</t>
+  </si>
+  <si>
+    <t>Scolopacidae</t>
+  </si>
+  <si>
+    <t>Gallinago jamesoni</t>
+  </si>
+  <si>
+    <t>Gallinago nobilis</t>
+  </si>
+  <si>
+    <t>Accipitridae</t>
+  </si>
+  <si>
+    <t>Geranoaetus polyosoma</t>
+  </si>
+  <si>
+    <t>Trogonidae</t>
+  </si>
+  <si>
+    <t>Trogon personatus</t>
+  </si>
+  <si>
+    <t>Ramphastidae</t>
+  </si>
+  <si>
+    <t>Andigena hypoglauca</t>
+  </si>
+  <si>
+    <t>Picidae</t>
+  </si>
+  <si>
+    <t>Dryobates nigriceps</t>
+  </si>
+  <si>
+    <t>Campephilus pollens</t>
+  </si>
+  <si>
+    <t>Colaptes rivolii</t>
+  </si>
+  <si>
+    <t>Psittacidae</t>
+  </si>
+  <si>
+    <t>Hapalopsittaca fuertesi</t>
+  </si>
+  <si>
+    <t>Amazona mercenarius</t>
+  </si>
+  <si>
+    <t>Grallariidae</t>
+  </si>
+  <si>
+    <t>Grallaria squamigera</t>
+  </si>
+  <si>
+    <t>Grallaria rufula</t>
+  </si>
+  <si>
+    <t>Grallaria quitensis</t>
+  </si>
+  <si>
+    <t>1-spec</t>
+  </si>
+  <si>
+    <t>Rhinocryptidae</t>
+  </si>
+  <si>
+    <t>Scytalopus opacus</t>
+  </si>
+  <si>
+    <t>Furnariidae</t>
+  </si>
+  <si>
+    <t>Pseudocolaptes boissonneautii</t>
+  </si>
+  <si>
+    <t>Cinclodes excelsior</t>
+  </si>
+  <si>
+    <t>20-chap</t>
+  </si>
+  <si>
+    <t>Margarornis squamiger</t>
+  </si>
+  <si>
+    <t>Leptasthenura andicola</t>
+  </si>
+  <si>
+    <t>Asthenes flammulata</t>
+  </si>
+  <si>
+    <t>15-chap</t>
+  </si>
+  <si>
+    <t>Asthenes fuliginosa</t>
+  </si>
+  <si>
+    <t>Cotingidae</t>
+  </si>
+  <si>
+    <t>Ampelion rubrocristatus</t>
+  </si>
+  <si>
+    <t>2-chap</t>
+  </si>
+  <si>
+    <t>Tyrannidae</t>
+  </si>
+  <si>
+    <t>Pseudotriccus ruficeps</t>
+  </si>
+  <si>
+    <t>Mecocerculus stictopterus</t>
+  </si>
+  <si>
+    <t>1-chap</t>
+  </si>
+  <si>
+    <t>Mecocerculus leucophrys</t>
+  </si>
+  <si>
+    <t>12-chap</t>
+  </si>
+  <si>
+    <t>Muscisaxicola alpinus</t>
+  </si>
+  <si>
+    <t>5-chap</t>
+  </si>
+  <si>
+    <t>Myiotheretes striaticollis</t>
+  </si>
+  <si>
+    <t>Myiotheretes fumigatus</t>
+  </si>
+  <si>
+    <t>Ochthoeca frontalis</t>
+  </si>
+  <si>
+    <t>Ochthoeca oenanthoides</t>
+  </si>
+  <si>
+    <t>13-chap</t>
+  </si>
+  <si>
+    <t>Corvidae</t>
+  </si>
+  <si>
+    <t>Cyanolyca armillata</t>
+  </si>
+  <si>
+    <t>Troglodytidae</t>
+  </si>
+  <si>
+    <t>Troglodytes solstitialis</t>
+  </si>
+  <si>
+    <t>Cistothorus platensis</t>
+  </si>
+  <si>
+    <t>Cinnycerthia unirufa</t>
+  </si>
+  <si>
+    <t>5-spec</t>
+  </si>
+  <si>
+    <t>Turdidae</t>
+  </si>
+  <si>
+    <t>Turdus fuscater</t>
+  </si>
+  <si>
+    <t>Fringillidae</t>
+  </si>
+  <si>
+    <t>Chlorophonia pyrrhophrys</t>
+  </si>
+  <si>
+    <t>Spinus spinescens</t>
+  </si>
+  <si>
+    <t>Passerellidae</t>
+  </si>
+  <si>
+    <t>Arremon assimilis</t>
+  </si>
+  <si>
+    <t>Zonotrichia capensis</t>
+  </si>
+  <si>
+    <t>Atlapetes pallidinucha</t>
+  </si>
+  <si>
+    <t>4-spec</t>
+  </si>
+  <si>
+    <t>Atlapetes latinuchus</t>
+  </si>
+  <si>
+    <t>Parulidae</t>
+  </si>
+  <si>
+    <t>Setophaga fusca</t>
+  </si>
+  <si>
+    <t>Basileuterus tristriatus</t>
+  </si>
+  <si>
+    <t>Myiothlypis nigrocristata</t>
+  </si>
+  <si>
+    <t>Myioborus ornatus</t>
+  </si>
+  <si>
+    <t>Thraupidae</t>
+  </si>
+  <si>
+    <t>Thlypopsis superciliaris</t>
+  </si>
+  <si>
+    <t>Buthraupis montana</t>
+  </si>
+  <si>
+    <t>Cnemathraupis eximia</t>
+  </si>
+  <si>
+    <t>Anisognathus lacrymosus</t>
+  </si>
+  <si>
+    <t>Conirostrum sitticolor</t>
+  </si>
+  <si>
+    <t>Conirostrum albifrons</t>
+  </si>
+  <si>
+    <t>Diglossa lafresnayii</t>
+  </si>
+  <si>
+    <t>Diglossa humeralis</t>
+  </si>
+  <si>
+    <t>Diglossa cyanea</t>
+  </si>
+  <si>
+    <t>Urothraupis stolzmanni</t>
+  </si>
+  <si>
+    <t>Geospizopsis unicolor</t>
+  </si>
+  <si>
+    <t>14-spec</t>
+  </si>
+  <si>
+    <t>Haplospiza unicolor</t>
+  </si>
+  <si>
+    <t>Pseudospingus verticalis</t>
+  </si>
+  <si>
+    <t>Cnemoscopus rubrirostris</t>
+  </si>
+  <si>
+    <t>Catamenia inornata</t>
+  </si>
+  <si>
+    <t>6-chap</t>
+  </si>
+  <si>
+    <t>?Grallaria</t>
+  </si>
+  <si>
+    <t>?Grallaria quitensis?</t>
+  </si>
+  <si>
+    <t>Buteo NA</t>
+  </si>
+  <si>
+    <t>Metallura NA</t>
+  </si>
+  <si>
+    <t>NA NA</t>
+  </si>
+  <si>
+    <t>Scytalopus</t>
+  </si>
+  <si>
+    <t>Scytalopus ?spillmanni?</t>
+  </si>
+  <si>
+    <t>Scytalopus sp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -418,6 +425,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -699,14 +715,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +744,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>540</v>
       </c>
       <c r="B2" t="s">
@@ -733,15 +754,15 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>782</v>
       </c>
       <c r="B3" t="s">
@@ -750,15 +771,15 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>4283</v>
       </c>
       <c r="B4" t="s">
@@ -767,15 +788,15 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4379</v>
       </c>
       <c r="B5" t="s">
@@ -784,15 +805,15 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4396</v>
       </c>
       <c r="B6" t="s">
@@ -801,15 +822,15 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4405</v>
       </c>
       <c r="B7" t="s">
@@ -818,15 +839,15 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>4415</v>
       </c>
       <c r="B8" t="s">
@@ -835,15 +856,15 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>4447</v>
       </c>
       <c r="B9" t="s">
@@ -852,15 +873,15 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>4458</v>
       </c>
       <c r="B10" t="s">
@@ -869,15 +890,15 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>4508</v>
       </c>
       <c r="B11" t="s">
@@ -886,15 +907,15 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>4516</v>
       </c>
       <c r="B12" t="s">
@@ -903,15 +924,15 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>4524</v>
       </c>
       <c r="B13" t="s">
@@ -920,15 +941,15 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>5930</v>
       </c>
       <c r="B14" t="s">
@@ -937,15 +958,15 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>5949</v>
       </c>
       <c r="B15" t="s">
@@ -954,15 +975,15 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>7958</v>
       </c>
       <c r="B16" t="s">
@@ -971,15 +992,15 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>9016</v>
       </c>
       <c r="B17" t="s">
@@ -988,15 +1009,15 @@
       <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>10307</v>
       </c>
       <c r="B18" t="s">
@@ -1005,15 +1026,15 @@
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>10901</v>
       </c>
       <c r="B19" t="s">
@@ -1022,15 +1043,15 @@
       <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>10944</v>
       </c>
       <c r="B20" t="s">
@@ -1039,15 +1060,15 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>11259</v>
       </c>
       <c r="B21" t="s">
@@ -1056,15 +1077,15 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>12203</v>
       </c>
       <c r="B22" t="s">
@@ -1073,15 +1094,15 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>12317</v>
       </c>
       <c r="B23" t="s">
@@ -1090,15 +1111,15 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>13483</v>
       </c>
       <c r="B24" t="s">
@@ -1107,15 +1128,15 @@
       <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>13558</v>
       </c>
       <c r="B25" t="s">
@@ -1124,15 +1145,15 @@
       <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>13567</v>
       </c>
       <c r="B26" t="s">
@@ -1141,15 +1162,15 @@
       <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>13737</v>
       </c>
       <c r="B27" t="s">
@@ -1158,15 +1179,15 @@
       <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>14275</v>
       </c>
       <c r="B28" t="s">
@@ -1175,15 +1196,15 @@
       <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>14369</v>
       </c>
       <c r="B29" t="s">
@@ -1192,15 +1213,15 @@
       <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>22</v>
       </c>
       <c r="E29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>14567</v>
       </c>
       <c r="B30" t="s">
@@ -1209,15 +1230,15 @@
       <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>14597</v>
       </c>
       <c r="B31" t="s">
@@ -1226,15 +1247,15 @@
       <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>14653</v>
       </c>
       <c r="B32" t="s">
@@ -1243,15 +1264,15 @@
       <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>14703</v>
       </c>
       <c r="B33" t="s">
@@ -1260,15 +1281,15 @@
       <c r="C33" t="s">
         <v>55</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>15133</v>
       </c>
       <c r="B34" t="s">
@@ -1277,15 +1298,15 @@
       <c r="C34" t="s">
         <v>57</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>15525</v>
       </c>
       <c r="B35" t="s">
@@ -1294,15 +1315,15 @@
       <c r="C35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>15805</v>
       </c>
       <c r="B36" t="s">
@@ -1311,15 +1332,15 @@
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>15809</v>
       </c>
       <c r="B37" t="s">
@@ -1328,15 +1349,15 @@
       <c r="C37" t="s">
         <v>63</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>16326</v>
       </c>
       <c r="B38" t="s">
@@ -1345,15 +1366,15 @@
       <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>6</v>
       </c>
       <c r="E38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>16364</v>
       </c>
       <c r="B39" t="s">
@@ -1362,15 +1383,15 @@
       <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>16368</v>
       </c>
       <c r="B40" t="s">
@@ -1379,15 +1400,15 @@
       <c r="C40" t="s">
         <v>68</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>16393</v>
       </c>
       <c r="B41" t="s">
@@ -1396,15 +1417,15 @@
       <c r="C41" t="s">
         <v>69</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>16431</v>
       </c>
       <c r="B42" t="s">
@@ -1413,15 +1434,15 @@
       <c r="C42" t="s">
         <v>70</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>14</v>
       </c>
       <c r="E42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>20285</v>
       </c>
       <c r="B43" t="s">
@@ -1430,15 +1451,15 @@
       <c r="C43" t="s">
         <v>73</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>26175</v>
       </c>
       <c r="B44" t="s">
@@ -1447,15 +1468,15 @@
       <c r="C44" t="s">
         <v>75</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>4</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>26242</v>
       </c>
       <c r="B45" t="s">
@@ -1464,15 +1485,15 @@
       <c r="C45" t="s">
         <v>76</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>15</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>26505</v>
       </c>
       <c r="B46" t="s">
@@ -1481,15 +1502,15 @@
       <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>7</v>
       </c>
       <c r="E46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>27509</v>
       </c>
       <c r="B47" t="s">
@@ -1498,15 +1519,15 @@
       <c r="C47" t="s">
         <v>80</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>30764</v>
       </c>
       <c r="B48" t="s">
@@ -1515,15 +1536,15 @@
       <c r="C48" t="s">
         <v>82</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>31390</v>
       </c>
       <c r="B49" t="s">
@@ -1532,15 +1553,15 @@
       <c r="C49" t="s">
         <v>83</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>31784</v>
       </c>
       <c r="B50" t="s">
@@ -1549,15 +1570,15 @@
       <c r="C50" t="s">
         <v>85</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>31901</v>
       </c>
       <c r="B51" t="s">
@@ -1566,15 +1587,15 @@
       <c r="C51" t="s">
         <v>86</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>32221</v>
       </c>
       <c r="B52" t="s">
@@ -1583,15 +1604,15 @@
       <c r="C52" t="s">
         <v>87</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>7</v>
       </c>
       <c r="E52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>32225</v>
       </c>
       <c r="B53" t="s">
@@ -1600,15 +1621,15 @@
       <c r="C53" t="s">
         <v>89</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>32796</v>
       </c>
       <c r="B54" t="s">
@@ -1617,15 +1638,15 @@
       <c r="C54" t="s">
         <v>91</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>32953</v>
       </c>
       <c r="B55" t="s">
@@ -1634,15 +1655,15 @@
       <c r="C55" t="s">
         <v>92</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>32989</v>
       </c>
       <c r="B56" t="s">
@@ -1651,15 +1672,15 @@
       <c r="C56" t="s">
         <v>93</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>33067</v>
       </c>
       <c r="B57" t="s">
@@ -1668,15 +1689,15 @@
       <c r="C57" t="s">
         <v>94</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>33379</v>
       </c>
       <c r="B58" t="s">
@@ -1685,15 +1706,15 @@
       <c r="C58" t="s">
         <v>96</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>33504</v>
       </c>
       <c r="B59" t="s">
@@ -1702,15 +1723,15 @@
       <c r="C59" t="s">
         <v>97</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>4</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>33511</v>
       </c>
       <c r="B60" t="s">
@@ -1719,15 +1740,15 @@
       <c r="C60" t="s">
         <v>98</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>7</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>33524</v>
       </c>
       <c r="B61" t="s">
@@ -1736,15 +1757,15 @@
       <c r="C61" t="s">
         <v>99</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>33912</v>
       </c>
       <c r="B62" t="s">
@@ -1753,15 +1774,15 @@
       <c r="C62" t="s">
         <v>100</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>33916</v>
       </c>
       <c r="B63" t="s">
@@ -1770,15 +1791,15 @@
       <c r="C63" t="s">
         <v>101</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>33934</v>
       </c>
       <c r="B64" t="s">
@@ -1787,15 +1808,15 @@
       <c r="C64" t="s">
         <v>102</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>33941</v>
       </c>
       <c r="B65" t="s">
@@ -1804,15 +1825,15 @@
       <c r="C65" t="s">
         <v>103</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>33988</v>
       </c>
       <c r="B66" t="s">
@@ -1821,15 +1842,15 @@
       <c r="C66" t="s">
         <v>104</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>33999</v>
       </c>
       <c r="B67" t="s">
@@ -1838,15 +1859,15 @@
       <c r="C67" t="s">
         <v>105</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>34032</v>
       </c>
       <c r="B68" t="s">
@@ -1855,15 +1876,15 @@
       <c r="C68" t="s">
         <v>106</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>19</v>
       </c>
       <c r="E68" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>34042</v>
       </c>
       <c r="B69" t="s">
@@ -1872,15 +1893,15 @@
       <c r="C69" t="s">
         <v>108</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>34083</v>
       </c>
       <c r="B70" t="s">
@@ -1889,15 +1910,15 @@
       <c r="C70" t="s">
         <v>109</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>34085</v>
       </c>
       <c r="B71" t="s">
@@ -1906,15 +1927,15 @@
       <c r="C71" t="s">
         <v>110</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>34270</v>
       </c>
       <c r="B72" t="s">
@@ -1923,91 +1944,82 @@
       <c r="C72" t="s">
         <v>111</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>7</v>
       </c>
       <c r="E72" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73"/>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>113</v>
       </c>
       <c r="C73" t="s">
         <v>114</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>10</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74"/>
-      <c r="B74"/>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>115</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75"/>
-      <c r="B75"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>116</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76"/>
-      <c r="B76"/>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>117</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>7</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>118</v>
       </c>
       <c r="C77" t="s">
         <v>119</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>118</v>
       </c>
       <c r="C78" t="s">
         <v>120</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
@@ -2016,6 +2028,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/historical.databases/Sampling.Exp.SantaIsabel.xlsx
+++ b/historical.databases/Sampling.Exp.SantaIsabel.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glennseeholzer/Dropbox/Chapman/expediciornis/historical.databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921049C1-2A31-C249-AB1B-AF5E48A81491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C8690-4E10-8D44-AD5F-4FB5A303BD35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18860" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5320" yWindow="460" windowWidth="25240" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Santa Isabel" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Santa Isabel'!$A$1:$E$78</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
@@ -718,13 +721,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -746,67 +750,67 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>540</v>
+        <v>14369</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>782</v>
+        <v>34032</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4283</v>
+        <v>14653</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4379</v>
+        <v>26242</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -814,67 +818,67 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4396</v>
+        <v>16431</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4405</v>
+        <v>15809</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4415</v>
+        <v>4405</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4447</v>
+        <v>5930</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -882,33 +886,30 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4458</v>
+        <v>4415</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4508</v>
-      </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -916,67 +917,67 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4516</v>
+        <v>13567</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4524</v>
+        <v>26505</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>5930</v>
+        <v>32221</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5949</v>
+        <v>33511</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -984,84 +985,78 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>7958</v>
+        <v>34270</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>9016</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>10307</v>
+        <v>782</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>10901</v>
+        <v>16326</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>10944</v>
+        <v>14567</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1069,16 +1064,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>11259</v>
+        <v>10307</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -1086,16 +1081,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>12203</v>
+        <v>14597</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -1103,16 +1098,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>12317</v>
+        <v>14703</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1120,16 +1115,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>13483</v>
+        <v>26175</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1137,67 +1132,67 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>13558</v>
+        <v>27509</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>13567</v>
+        <v>33504</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>13737</v>
+        <v>4283</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>14275</v>
+        <v>10944</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -1205,50 +1200,50 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>14369</v>
+        <v>13558</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>14567</v>
+        <v>15133</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>14597</v>
+        <v>16393</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -1256,67 +1251,61 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>14653</v>
+        <v>31901</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>14703</v>
+        <v>32225</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>15133</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>15525</v>
+        <v>4379</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -1324,67 +1313,67 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>15805</v>
+        <v>4396</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>15809</v>
+        <v>5949</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>16326</v>
+        <v>9016</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>16364</v>
+        <v>10901</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1392,13 +1381,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>16368</v>
+        <v>13483</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1409,67 +1398,67 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16393</v>
+        <v>13737</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>16431</v>
+        <v>14275</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>20285</v>
+        <v>15805</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>26175</v>
+        <v>16368</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1477,16 +1466,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>26242</v>
+        <v>31390</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -1494,33 +1483,33 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>26505</v>
+        <v>33912</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>27509</v>
+        <v>33988</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -1528,30 +1517,30 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>30764</v>
+        <v>34042</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>31390</v>
+        <v>34083</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1561,82 +1550,76 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>31784</v>
-      </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>31901</v>
-      </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>32221</v>
+        <v>540</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>32225</v>
+        <v>4447</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>32796</v>
+        <v>4458</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1647,13 +1630,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>32953</v>
+        <v>4508</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1664,30 +1647,30 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>32989</v>
+        <v>4516</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>33067</v>
+        <v>4524</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1698,33 +1681,33 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>33379</v>
+        <v>7958</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>33504</v>
+        <v>11259</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -1732,16 +1715,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>33511</v>
+        <v>12203</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -1749,13 +1732,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>33524</v>
+        <v>12317</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1766,16 +1749,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>33912</v>
+        <v>15525</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -1783,13 +1766,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>33916</v>
+        <v>16364</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1800,13 +1783,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>33934</v>
+        <v>20285</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1817,13 +1800,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>33941</v>
+        <v>30764</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1834,16 +1817,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>33988</v>
+        <v>31784</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
@@ -1851,13 +1834,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>33999</v>
+        <v>32796</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1868,50 +1851,50 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>34032</v>
+        <v>32953</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>34042</v>
+        <v>32989</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>34083</v>
+        <v>33067</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
@@ -1919,114 +1902,140 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>34085</v>
+        <v>33379</v>
       </c>
       <c r="B71" t="s">
         <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>34270</v>
+        <v>33524</v>
       </c>
       <c r="B72" t="s">
         <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>33916</v>
+      </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>33934</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>33941</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>33999</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>34085</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
         <v>115</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:E78" xr:uid="{6A19791E-AE5B-BD49-8D50-A81A013E471F}">
+    <sortState ref="A2:E78">
+      <sortCondition descending="1" ref="D1:D78"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
